--- a/biology/Botanique/Hesperalbizia_occidentalis/Hesperalbizia_occidentalis.xlsx
+++ b/biology/Botanique/Hesperalbizia_occidentalis/Hesperalbizia_occidentalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Hesperalbizia occidentalis est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire du Mexique. C'est l'unique espèce acceptée du genre Hesperalbizia (genre monotypique). Certains auteurs classent cette espèce dans le genre Albizzia sous le nom d’Albizzia occidentalis Brandegee) Barneby &amp; J.W. Grimes[4].
+Hesperalbizia occidentalis est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire du Mexique. C'est l'unique espèce acceptée du genre Hesperalbizia (genre monotypique). Certains auteurs classent cette espèce dans le genre Albizzia sous le nom d’Albizzia occidentalis Brandegee) Barneby &amp; J.W. Grimes.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (3 décembre 2018)[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (3 décembre 2018) : 
 Albizia obliqua Britton &amp; Rose
-Albizia occidentalis Brandegee[5]
+Albizia occidentalis Brandegee
 Albizia plurijuga (Standl.) Britton &amp; Rose
 Albizzia obliqua Britton &amp; Rose
 Albizzia plurijuga (Standl.) Britton &amp; Rose
